--- a/Test.xlsx
+++ b/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE17699-762D-498A-BED9-250CD043E8FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754DD144-8F9C-4615-9CB8-0CD0221E5626}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -345,6 +345,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754DD144-8F9C-4615-9CB8-0CD0221E5626}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085FF09-0B77-4AF7-A506-72D8B2419EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,25 +332,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>